--- a/noah lab/cash-burn-rate/8.27/EnterpCashPredict/data/test_data.xlsx
+++ b/noah lab/cash-burn-rate/8.27/EnterpCashPredict/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="499"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984">
   <si>
     <t>Company Name</t>
   </si>
@@ -2868,6 +2868,249 @@
     <t>Capex/Rev %[FY 2016]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1998</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2002</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2004</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2006</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2008</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分红状况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u val="singleAccounting"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+  </si>
+  <si>
+    <t>分红状况2015</t>
+  </si>
+  <si>
     <t>发展周期1997</t>
   </si>
   <si>
@@ -2923,6 +3166,9 @@
   </si>
   <si>
     <t>发展周期2015</t>
+  </si>
+  <si>
+    <t>发展周期2016</t>
   </si>
   <si>
     <t>Dev_label</t>
@@ -2963,13 +3209,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3006,7 +3252,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3018,16 +3267,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3040,54 +3296,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3098,9 +3319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3122,11 +3342,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3139,27 +3412,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <u val="singleAccounting"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -3183,7 +3440,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3195,31 +3488,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,13 +3542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,43 +3590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3303,61 +3614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="60"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3369,7 +3626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,11 +3640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3434,34 +3697,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3480,16 +3726,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3498,138 +3755,141 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3672,11 +3932,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -3727,6 +3994,7 @@
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -4055,10 +4323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:ALE15"/>
+  <dimension ref="A1:ALH15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AKX1" workbookViewId="0">
-      <selection activeCell="ALE1" sqref="ALE1"/>
+      <selection activeCell="ALG1" sqref="ALG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4066,7 +4334,7 @@
     <col min="937" max="937" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="90" spans="1:993">
+    <row r="1" s="1" customFormat="1" ht="90" spans="1:996">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6873,101 +7141,215 @@
         <v>934</v>
       </c>
       <c r="AIZ1" s="9"/>
-      <c r="AJA1" s="7"/>
-      <c r="AKL1" s="16" t="s">
+      <c r="AJA1" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="AKM1" s="16" t="s">
+      <c r="AJB1" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="AKN1" s="16" t="s">
+      <c r="AJC1" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="AKO1" s="16" t="s">
+      <c r="AJD1" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="AKP1" s="16" t="s">
+      <c r="AJE1" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="AKQ1" s="16" t="s">
+      <c r="AJF1" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="AKR1" s="16" t="s">
+      <c r="AJG1" s="16" t="s">
         <v>941</v>
       </c>
-      <c r="AKS1" s="16" t="s">
+      <c r="AJH1" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="AKT1" s="16" t="s">
+      <c r="AJI1" s="16" t="s">
         <v>943</v>
       </c>
-      <c r="AKU1" s="16" t="s">
+      <c r="AJJ1" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="AKV1" s="16" t="s">
+      <c r="AJK1" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="AKW1" s="16" t="s">
+      <c r="AJL1" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="AKX1" s="16" t="s">
+      <c r="AJM1" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="AKY1" s="16" t="s">
+      <c r="AJN1" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="AKZ1" s="16" t="s">
+      <c r="AJO1" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="ALA1" s="16" t="s">
+      <c r="AJP1" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="ALB1" s="16" t="s">
+      <c r="AJQ1" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="ALC1" s="16" t="s">
+      <c r="AJR1" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="ALD1" s="16" t="s">
+      <c r="AJT1" s="18">
+        <v>1997</v>
+      </c>
+      <c r="AJU1" s="18">
+        <v>1998</v>
+      </c>
+      <c r="AJV1" s="18">
+        <v>1999</v>
+      </c>
+      <c r="AJW1" s="18">
+        <v>2000</v>
+      </c>
+      <c r="AJX1" s="18">
+        <v>2001</v>
+      </c>
+      <c r="AJY1" s="18">
+        <v>2002</v>
+      </c>
+      <c r="AJZ1" s="18">
+        <v>2003</v>
+      </c>
+      <c r="AKA1" s="18">
+        <v>2004</v>
+      </c>
+      <c r="AKB1" s="18">
+        <v>2005</v>
+      </c>
+      <c r="AKC1" s="18">
+        <v>2006</v>
+      </c>
+      <c r="AKD1" s="19">
+        <v>2007</v>
+      </c>
+      <c r="AKE1" s="19">
+        <v>2008</v>
+      </c>
+      <c r="AKF1" s="19">
+        <v>2009</v>
+      </c>
+      <c r="AKG1" s="19">
+        <v>2010</v>
+      </c>
+      <c r="AKH1" s="19">
+        <v>2011</v>
+      </c>
+      <c r="AKI1" s="19">
+        <v>2012</v>
+      </c>
+      <c r="AKJ1" s="19">
+        <v>2013</v>
+      </c>
+      <c r="AKK1" s="19">
+        <v>2014</v>
+      </c>
+      <c r="AKL1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="AKM1" s="19"/>
+      <c r="AKN1" s="18" t="s">
         <v>953</v>
       </c>
-      <c r="ALE1" s="16" t="s">
+      <c r="AKO1" s="18" t="s">
         <v>954</v>
       </c>
+      <c r="AKP1" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="AKQ1" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="AKR1" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="AKS1" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="AKT1" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="AKU1" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="AKV1" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="AKW1" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="AKX1" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="AKY1" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="AKZ1" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="ALA1" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="ALB1" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="ALC1" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="ALD1" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="ALE1" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="ALF1" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="ALG1" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="ALH1" s="18" t="s">
+        <v>973</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:993">
+    <row r="2" s="2" customFormat="1" spans="1:996">
       <c r="A2" s="2" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="B2" s="2">
         <v>-1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -6976,7 +7358,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="Q2" s="2">
         <v>7614.54983</v>
@@ -7003,10 +7385,10 @@
         <v>3.66857418274766</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="AJ2" s="2">
         <v>-1</v>
@@ -9708,13 +10090,61 @@
       <c r="AIY2" s="15">
         <v>-1</v>
       </c>
-      <c r="AJA2" s="15"/>
-      <c r="AKL2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AKM2" s="2">
-        <v>2</v>
-      </c>
+      <c r="AJA2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJB2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJC2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJD2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJE2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJF2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJG2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJH2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJI2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJJ2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJK2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJL2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJM2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJN2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJO2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJP2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJQ2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJR2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJS2" s="17"/>
       <c r="AKN2" s="2">
         <v>2</v>
       </c>
@@ -9743,10 +10173,10 @@
         <v>2</v>
       </c>
       <c r="AKW2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AKX2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AKY2" s="2">
         <v>3</v>
@@ -9755,18 +10185,24 @@
         <v>3</v>
       </c>
       <c r="ALA2" s="2">
+        <v>3</v>
+      </c>
+      <c r="ALB2" s="2">
+        <v>3</v>
+      </c>
+      <c r="ALC2" s="2">
         <v>2</v>
       </c>
-      <c r="ALB2" s="2">
+      <c r="ALD2" s="2">
         <v>2</v>
       </c>
-      <c r="ALC2" s="2">
+      <c r="ALE2" s="2">
         <v>3</v>
       </c>
-      <c r="ALD2" s="2">
+      <c r="ALF2" s="2">
         <v>3</v>
       </c>
-      <c r="ALE2" s="2">
+      <c r="ALH2" s="2">
         <v>2</v>
       </c>
     </row>
